--- a/biology/Botanique/Boryaceae/Boryaceae.xlsx
+++ b/biology/Botanique/Boryaceae/Boryaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Boryacées regroupe des plantes monocotylédones ; elle comprend une dizaine d'espèces réparties en 2 genres.
 Ce sont des plantes herbacées, pérennes, rhizomateuses des régions sèches d'Australie.
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre Borya dédié à l'homme politique français et naturaliste Jean-Baptiste Bory de Saint-Vincent (1780-1846)[1],[2] ; s'embarquant pour une expédition en Australie en 1798, il débarqua finalement à l'île Maurice pour explorer les îles Mascareignes[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre Borya dédié à l'homme politique français et naturaliste Jean-Baptiste Bory de Saint-Vincent (1780-1846), ; s'embarquant pour une expédition en Australie en 1798, il débarqua finalement à l'île Maurice pour explorer les îles Mascareignes.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Alors que certains auteurs l’incorporaient aux Anthéricacées, la classification phylogénétique a séparé ces plantes des Liliacées et attache la famille à part entière à l'ordre des Asparagales.
 </t>
@@ -574,9 +590,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (16 avr. 2010)[4], Angiosperm Phylogeny Website                        (19 mai 2010)[5] et NCBI  (16 avr. 2010)[6] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (16 avr. 2010), Angiosperm Phylogeny Website                        (19 mai 2010) et NCBI  (16 avr. 2010) :
 genre Alania Endl. (1836)
 genre Borya Labill. (1805)</t>
         </is>
@@ -606,9 +624,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (16 avr. 2010)[4] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (16 avr. 2010) :
 genre Alania Endl. (1836)
 Alania cunninghamii  Steud., Nomencl. Bot., ed. 2 (1840)
 genre Borya Labill. (1805)
@@ -623,7 +643,7 @@
 Borya septentrionalis  F.Muell. (1865)
 Borya sphaerocephala  R.Br. (1810)
 Borya subulata  G.A.Gardner, For. Dept. Bull. (1923)
-Selon NCBI  (16 avr. 2010)[6] :
+Selon NCBI  (16 avr. 2010) :
 genre Alania
 Alania endlicheri
 genre Borya
